--- a/docs/mcode/shr-core-MedicationRequest.xlsx
+++ b/docs/mcode/shr-core-MedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="365">
   <si>
     <t>Path</t>
   </si>
@@ -197,19 +197,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>MedicationOrder.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.extension</t>
+    <t>MedicationOrder.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>MedicationOrder.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>MedicationOrder.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationOrder.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationOrder.extension</t>
   </si>
   <si>
     <t>extensions
@@ -223,193 +302,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>MedicationOrder.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>MedicationOrder.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>MedicationOrder.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>MedicationOrder.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationOrder.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationOrder.extension</t>
-  </si>
-  <si>
-    <t>MedicationOrder:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -436,6 +332,9 @@
 </t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
     <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
@@ -520,11 +419,18 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Recipient-extension"/&gt;</t>
   </si>
   <si>
-    <t>MedicationOrder.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t>MedicationOrder.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
 </t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>A social or legal structure formed by human beings.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here.</t>
   </si>
   <si>
     <t>prioritycode</t>
@@ -540,6 +446,9 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PriorityCode-extension"/&gt;</t>
   </si>
   <si>
+    <t>MedicationOrder.extension.value[x]</t>
+  </si>
+  <si>
     <t>positiveInt {[]} {[]}
 CodeableConcept {[]} {[]}</t>
   </si>
@@ -636,6 +545,9 @@
     <t>The reason why the prescription was stopped, if it was.</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes indicating why the medication was terminated; e.g. Adverse reaction, medication change, issue resolved, etc.</t>
   </si>
   <si>
@@ -714,9 +626,6 @@
     <t>MedicationOrder.reason[x]</t>
   </si>
   <si>
-    <t>MedicationOrder:argoprofile.reason[x]</t>
-  </si>
-  <si>
     <t>CodeableConcept {[]} {[]}
 Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}</t>
   </si>
@@ -774,6 +683,9 @@
     <t>If only a code is specified, then it needs to be a code for a specific product.  If more information is required, then the use of the medication resource is recommended.  Note: do not use Medication.name to describe the prescribed medication. When the only available information is a text description of the medication, Medication.code.text should be used.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Prescribable medications</t>
   </si>
   <si>
@@ -787,6 +699,12 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
+  </si>
+  <si>
+    <t>MedicationOrder.medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
   <si>
     <t>MedicationOrder.dosageInstruction</t>
@@ -811,7 +729,16 @@
     <t>MedicationOrder.dosageInstruction.id</t>
   </si>
   <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationOrder.dosageInstruction.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationOrder.dosageInstruction.modifierExtension</t>
@@ -879,9 +806,6 @@
     <t>MedicationOrder.dosageInstruction.asNeeded[x]</t>
   </si>
   <si>
-    <t>MedicationOrder:argoprofile.dosageInstruction.asNeeded[x]</t>
-  </si>
-  <si>
     <t>boolean {[]} {[]}
 CodeableConcept {[]} {[]}</t>
   </si>
@@ -916,7 +840,7 @@
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>MedicationOrder.dosageInstruction.site[x]</t>
@@ -1165,9 +1089,6 @@
   </si>
   <si>
     <t>MedicationOrder.substitution.extension</t>
-  </si>
-  <si>
-    <t>MedicationOrder:argoprofile.substitution.extension</t>
   </si>
   <si>
     <t>substitutionallowed</t>
@@ -1384,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1394,7 +1315,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.33984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.80859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1888,21 +1809,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1924,7 +1847,7 @@
         <v>42</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>42</v>
@@ -1950,11 +1873,15 @@
       <c r="AD5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
       </c>
@@ -1962,7 +1889,7 @@
         <v>42</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>42</v>
@@ -1973,18 +1900,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2028,16 +1955,16 @@
         <v>42</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2054,11 +1981,15 @@
       <c r="AD6" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
       </c>
@@ -2066,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>42</v>
@@ -2077,11 +2008,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2097,19 +2028,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2132,7 +2063,7 @@
         <v>42</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>42</v>
@@ -2158,19 +2089,23 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>42</v>
@@ -2181,18 +2116,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2201,19 +2136,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2236,7 +2171,7 @@
         <v>42</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>42</v>
@@ -2262,11 +2197,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2274,7 +2213,7 @@
         <v>42</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>42</v>
@@ -2285,15 +2224,15 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>41</v>
@@ -2305,19 +2244,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2340,7 +2279,7 @@
         <v>42</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>42</v>
@@ -2355,22 +2294,24 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2378,7 +2319,7 @@
         <v>42</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>42</v>
@@ -2389,18 +2330,20 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2409,20 +2352,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2444,16 +2383,16 @@
         <v>42</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2470,11 +2409,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2493,7 +2436,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2504,7 +2447,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2513,20 +2456,18 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2551,10 +2492,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2574,11 +2515,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>48</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2586,7 +2531,7 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>42</v>
@@ -2597,7 +2542,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2608,29 +2553,27 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2652,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>42</v>
@@ -2679,13 +2622,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2705,7 +2648,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2713,7 +2656,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>48</v>
@@ -2728,24 +2671,22 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>42</v>
@@ -2760,16 +2701,16 @@
         <v>42</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2787,10 +2728,10 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>48</v>
@@ -2802,7 +2743,7 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>42</v>
@@ -2813,15 +2754,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>48</v>
@@ -2836,17 +2777,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2868,16 +2807,14 @@
         <v>42</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2895,7 +2832,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2904,13 +2841,13 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>42</v>
@@ -2921,18 +2858,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -2946,15 +2885,11 @@
       <c r="J15" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="K15" s="2"/>
+      <c r="L15" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3003,7 +2938,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3018,7 +2953,7 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3029,20 +2964,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>42</v>
@@ -3054,17 +2987,15 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
@@ -3086,7 +3017,7 @@
         <v>42</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>42</v>
@@ -3101,23 +3032,25 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3126,7 +3059,7 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -3137,20 +3070,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3162,11 +3093,13 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3190,7 +3123,7 @@
         <v>42</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>42</v>
@@ -3217,7 +3150,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3243,7 +3176,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3251,7 +3184,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>48</v>
@@ -3266,13 +3199,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3281,7 +3214,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>42</v>
@@ -3323,10 +3256,10 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>48</v>
@@ -3338,7 +3271,7 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>42</v>
@@ -3349,7 +3282,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3357,10 +3290,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3372,13 +3305,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3405,13 +3338,11 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3429,13 +3360,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3444,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>42</v>
@@ -3455,15 +3386,17 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>48</v>
@@ -3478,13 +3411,11 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3493,7 +3424,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3508,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>42</v>
@@ -3535,13 +3466,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3550,7 +3481,7 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -3561,7 +3492,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3569,7 +3500,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>48</v>
@@ -3584,13 +3515,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3617,11 +3548,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3639,7 +3572,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3654,7 +3587,7 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>42</v>
@@ -3665,11 +3598,9 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3678,7 +3609,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3690,11 +3621,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3718,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>42</v>
@@ -3745,7 +3678,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3771,7 +3704,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3779,7 +3712,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>48</v>
@@ -3794,13 +3727,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3809,7 +3742,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>42</v>
@@ -3851,10 +3784,10 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3866,7 +3799,7 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>42</v>
@@ -3877,7 +3810,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3885,10 +3818,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -3900,13 +3833,13 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3957,13 +3890,13 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
@@ -3972,7 +3905,7 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>42</v>
@@ -3983,15 +3916,17 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
@@ -4006,13 +3941,11 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4021,7 +3954,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>42</v>
@@ -4036,7 +3969,7 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>42</v>
@@ -4063,13 +3996,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4078,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4089,7 +4022,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4097,7 +4030,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
@@ -4112,13 +4045,13 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4145,11 +4078,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4167,7 +4102,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4182,7 +4117,7 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -4193,11 +4128,9 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4206,7 +4139,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4218,11 +4151,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4246,7 +4181,7 @@
         <v>42</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>42</v>
@@ -4273,7 +4208,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4299,7 +4234,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4307,7 +4242,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>48</v>
@@ -4322,13 +4257,13 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4337,7 +4272,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4379,10 +4314,10 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>48</v>
@@ -4394,7 +4329,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4413,10 +4348,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4428,13 +4363,13 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4461,13 +4396,11 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4485,13 +4418,13 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4500,7 +4433,7 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4511,45 +4444,47 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>42</v>
@@ -4564,7 +4499,7 @@
         <v>42</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>42</v>
@@ -4591,13 +4526,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4606,7 +4541,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4617,7 +4552,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4625,10 +4560,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4637,16 +4572,16 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4670,7 +4605,7 @@
         <v>42</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>42</v>
@@ -4697,13 +4632,13 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
@@ -4712,34 +4647,32 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4748,11 +4681,13 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K32" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="L32" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4803,13 +4738,13 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4818,18 +4753,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4837,28 +4772,28 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4882,16 +4817,16 @@
         <v>42</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4909,7 +4844,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4924,10 +4859,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4935,7 +4870,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4946,7 +4881,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4955,16 +4890,16 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4988,7 +4923,7 @@
         <v>42</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>42</v>
@@ -5015,13 +4950,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -5041,7 +4976,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5049,7 +4984,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>48</v>
@@ -5061,16 +4996,16 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5079,7 +5014,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>42</v>
@@ -5094,13 +5029,13 @@
         <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Y35" t="s" s="2">
         <v>42</v>
@@ -5121,10 +5056,10 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>48</v>
@@ -5136,7 +5071,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5145,9 +5080,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5161,7 +5096,7 @@
         <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>42</v>
@@ -5170,15 +5105,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5200,14 +5137,16 @@
         <v>42</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5225,7 +5164,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5240,51 +5179,49 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5333,13 +5270,13 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
@@ -5348,18 +5285,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5370,7 +5307,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5382,15 +5319,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5439,13 +5378,13 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
@@ -5454,18 +5393,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5473,28 +5412,28 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5521,31 +5460,29 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5560,18 +5497,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5579,28 +5516,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5624,16 +5561,14 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5651,7 +5586,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5666,10 +5601,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5677,7 +5612,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5700,13 +5635,13 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5757,7 +5692,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5783,7 +5718,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5791,30 +5726,32 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5839,34 +5776,32 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>48</v>
@@ -5878,18 +5813,18 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5903,7 +5838,7 @@
         <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -5912,17 +5847,15 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5944,16 +5877,14 @@
         <v>42</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -5971,10 +5902,10 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>48</v>
@@ -5986,18 +5917,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6005,30 +5936,32 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6077,13 +6010,13 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
@@ -6092,18 +6025,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6123,20 +6056,18 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6185,7 +6116,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6200,31 +6131,29 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6233,18 +6162,20 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6269,86 +6200,90 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB46" s="2"/>
-      <c r="AC46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6370,14 +6305,16 @@
         <v>42</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6395,13 +6332,13 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
@@ -6410,7 +6347,7 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
@@ -6444,7 +6381,7 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>234</v>
@@ -6516,18 +6453,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6535,32 +6472,30 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M49" t="s" s="2">
         <v>240</v>
       </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6585,57 +6520,57 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>241</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6658,16 +6593,16 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6717,13 +6652,13 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
@@ -6732,18 +6667,18 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6763,18 +6698,20 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6799,10 +6736,10 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="Y51" t="s" s="2">
         <v>42</v>
@@ -6811,19 +6748,17 @@
         <v>42</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6838,7 +6773,7 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
@@ -6849,18 +6784,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6869,20 +6804,18 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6904,16 +6837,14 @@
         <v>42</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -6931,13 +6862,13 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
@@ -6946,7 +6877,7 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
@@ -6957,40 +6888,38 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7012,16 +6941,14 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7039,13 +6966,13 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
@@ -7054,7 +6981,7 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>42</v>
@@ -7065,7 +6992,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7088,13 +7015,13 @@
         <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7121,13 +7048,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7145,7 +7072,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7160,18 +7087,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7194,15 +7121,17 @@
         <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7227,13 +7156,11 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7251,7 +7178,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7266,18 +7193,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7300,16 +7227,16 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7359,7 +7286,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7374,22 +7301,20 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7410,16 +7335,16 @@
         <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7445,10 +7370,10 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>42</v>
@@ -7457,17 +7382,19 @@
         <v>42</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7482,18 +7409,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7516,15 +7443,17 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7546,14 +7475,16 @@
         <v>42</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7571,7 +7502,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7586,18 +7517,18 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7620,13 +7551,13 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7650,14 +7581,16 @@
         <v>42</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7675,7 +7608,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7690,7 +7623,7 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
@@ -7701,7 +7634,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7721,16 +7654,16 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7757,13 +7690,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7781,7 +7714,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7796,29 +7729,29 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7827,19 +7760,19 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7865,11 +7798,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7887,13 +7822,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -7902,50 +7837,50 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7995,13 +7930,13 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
@@ -8010,18 +7945,18 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8044,16 +7979,16 @@
         <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8103,33 +8038,33 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8152,18 +8087,20 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8211,7 +8148,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8226,18 +8163,18 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8260,15 +8197,17 @@
         <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8317,33 +8256,33 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8363,16 +8302,16 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8423,7 +8362,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8438,29 +8377,29 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8469,19 +8408,19 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>65</v>
+        <v>333</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>66</v>
+        <v>334</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8531,13 +8470,13 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
@@ -8546,7 +8485,7 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
@@ -8557,40 +8496,38 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8639,13 +8576,13 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
@@ -8654,7 +8591,7 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>42</v>
@@ -8665,7 +8602,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8685,20 +8622,18 @@
         <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>333</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8747,7 +8682,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8762,29 +8697,29 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8793,23 +8728,21 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8845,25 +8778,23 @@
         <v>42</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>42</v>
@@ -8872,7 +8803,7 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
@@ -8883,9 +8814,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>42</v>
       </c>
@@ -8903,20 +8836,16 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="K71" s="2"/>
+      <c r="L71" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -8965,13 +8894,13 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
@@ -8980,49 +8909,51 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>351</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9071,13 +9002,13 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
@@ -9086,18 +9017,18 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>354</v>
+        <v>85</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9105,7 +9036,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>48</v>
@@ -9120,17 +9051,15 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>357</v>
+        <v>112</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9155,13 +9084,13 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9179,10 +9108,10 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>48</v>
@@ -9194,18 +9123,18 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9228,13 +9157,13 @@
         <v>49</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9261,13 +9190,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>42</v>
@@ -9285,7 +9214,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9300,18 +9229,18 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9331,16 +9260,16 @@
         <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>50</v>
+        <v>362</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>59</v>
+        <v>363</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9391,7 +9320,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9406,657 +9335,17 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB76" s="2"/>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL81" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL81">
+  <autoFilter ref="A1:AL75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10066,7 +9355,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
